--- a/DataGenerator/XLSXS/KeywordGrantData.xlsx
+++ b/DataGenerator/XLSXS/KeywordGrantData.xlsx
@@ -1,24 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jungs\Desktop\AngelBeat\DataGenerator\XLSXS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7045A659-2C31-443F-8107-A9E31F8C8A76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="400" yWindow="910" windowWidth="17120" windowHeight="9370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="SkillRange" sheetId="1" r:id="rId4"/>
+    <sheet name="SkillRange" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="C1">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
-        <t xml:space="preserve">이 칼럼부터 공식 세워지면 노티 후 지울 것</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>이 칼럼부터 공식 세워지면 노티 후 지울 것</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -26,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="38">
   <si>
     <t>키워드 부여 ID</t>
   </si>
@@ -49,9 +66,6 @@
     <t>턴 수</t>
   </si>
   <si>
-    <t>시작 스탯</t>
-  </si>
-  <si>
     <t>확률</t>
   </si>
   <si>
@@ -103,9 +117,6 @@
     <t>eStackBehavior</t>
   </si>
   <si>
-    <t>#은신 부여</t>
-  </si>
-  <si>
     <t>Skill</t>
   </si>
   <si>
@@ -115,46 +126,110 @@
     <t>Refresh</t>
   </si>
   <si>
-    <t>#방어력 감소 부여</t>
-  </si>
-  <si>
     <t>TARGET_ENEMY</t>
   </si>
   <si>
     <t>Cumulative</t>
   </si>
   <si>
-    <t>#연기 부여</t>
+    <t>시작 스택</t>
+  </si>
+  <si>
+    <t>#눈속임, 응수 준비 부여</t>
+  </si>
+  <si>
+    <t>#눈속임, 이동 불가 부여</t>
+  </si>
+  <si>
+    <t>#퍼뜨리기, 연기 부여</t>
+  </si>
+  <si>
+    <t>#연기사슬, 연기 결속 부여</t>
+  </si>
+  <si>
+    <t>#연기사슬, 이동 불가 부여</t>
+  </si>
+  <si>
+    <t>#회오리, 회오리 부여</t>
+  </si>
+  <si>
+    <r>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>탐식, 방어력 감소 부여</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>절규, 방어력 감소 부여</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFE599"/>
-        <bgColor rgb="FFFFE599"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -163,48 +238,82 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="3">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -394,49 +503,59 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="24.08984375" customWidth="1"/>
+    <col min="6" max="6" width="18.36328125" customWidth="1"/>
+    <col min="10" max="10" width="19.7265625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -448,36 +567,36 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -489,36 +608,36 @@
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -530,36 +649,36 @@
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
     </row>
-    <row r="4">
-      <c r="A4" s="3">
-        <v>6.0020001E7</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>90212001</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="6">
+        <v>10101002</v>
+      </c>
+      <c r="E4" s="6">
+        <v>10201001</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="G4" s="6">
+        <v>1</v>
+      </c>
+      <c r="H4" s="6">
+        <v>1</v>
+      </c>
+      <c r="I4" s="6">
+        <v>1000</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1.0010001E7</v>
-      </c>
-      <c r="E4" s="3">
-        <v>6.0010001E7</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="H4" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="I4" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -571,36 +690,36 @@
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
     </row>
-    <row r="5">
-      <c r="A5" s="3">
-        <v>6.0020002E7</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="3">
-        <v>3.0010001E7</v>
-      </c>
-      <c r="E5" s="3">
-        <v>6.0010002E7</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="H5" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="I5" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="J5" s="1" t="s">
+    <row r="5" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>90212002</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>31</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="6">
+        <v>10101002</v>
+      </c>
+      <c r="E5" s="6">
+        <v>90201001</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="6">
+        <v>1</v>
+      </c>
+      <c r="H5" s="6">
+        <v>1</v>
+      </c>
+      <c r="I5" s="6">
+        <v>1000</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -612,36 +731,36 @@
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
     </row>
-    <row r="6">
-      <c r="A6" s="3">
-        <v>6.0020003E7</v>
-      </c>
-      <c r="B6" s="1" t="s">
+    <row r="6" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>90212003</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="3">
-        <v>1.0010001E7</v>
-      </c>
-      <c r="E6" s="3">
-        <v>6.0010003E7</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="3">
-        <v>-1.0</v>
-      </c>
-      <c r="H6" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="I6" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>31</v>
+      <c r="C6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="6">
+        <v>10101003</v>
+      </c>
+      <c r="E6" s="6">
+        <v>10201002</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="6">
+        <v>-1</v>
+      </c>
+      <c r="H6" s="6">
+        <v>1</v>
+      </c>
+      <c r="I6" s="6">
+        <v>100</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -650,62 +769,187 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="3"/>
+    <row r="7" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>90212004</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="6">
+        <v>10101004</v>
+      </c>
+      <c r="E7" s="6">
+        <v>10201003</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="5">
+        <v>1</v>
+      </c>
+      <c r="H7" s="5">
+        <v>1</v>
+      </c>
+      <c r="I7" s="5">
+        <v>1000</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="2"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
     </row>
-    <row r="8">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="6"/>
+    <row r="8" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>90212005</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="6">
+        <v>10101004</v>
+      </c>
+      <c r="E8" s="6">
+        <v>90201001</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="5">
+        <v>1</v>
+      </c>
+      <c r="H8" s="5">
+        <v>1</v>
+      </c>
+      <c r="I8" s="5">
+        <v>1000</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="L8" s="4"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="6"/>
+    <row r="9" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>90212006</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="6">
+        <v>10101005</v>
+      </c>
+      <c r="E9" s="6">
+        <v>10201004</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="5">
+        <v>2</v>
+      </c>
+      <c r="H9" s="5">
+        <v>1</v>
+      </c>
+      <c r="I9" s="5">
+        <v>1000</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="3"/>
+      <c r="L9" s="4"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
+    <row r="10" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="6">
+        <v>90212007</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="6">
+        <v>30101002</v>
+      </c>
+      <c r="E10" s="6">
+        <v>90201002</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="5">
+        <v>3</v>
+      </c>
+      <c r="H10" s="5">
+        <v>2</v>
+      </c>
+      <c r="I10" s="5">
+        <v>90</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="6">
+        <v>90212008</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="6">
+        <v>30101004</v>
+      </c>
+      <c r="E11" s="6">
+        <v>90201002</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11" s="7">
+        <v>2</v>
+      </c>
+      <c r="I11" s="7">
+        <v>90</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>